--- a/data/NASDAQ_PROFIT_소프트웨어 및 IT서비스.xlsx
+++ b/data/NASDAQ_PROFIT_소프트웨어 및 IT서비스.xlsx
@@ -22,1240 +22,1240 @@
     <t>MSTR</t>
   </si>
   <si>
+    <t>MDB</t>
+  </si>
+  <si>
+    <t>PANW</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
     <t>PCTY</t>
   </si>
   <si>
-    <t>TEAM</t>
-  </si>
-  <si>
-    <t>MDB</t>
+    <t>SNPS</t>
   </si>
   <si>
     <t>NFLX</t>
   </si>
   <si>
-    <t>SNPS</t>
+    <t>ADSK</t>
+  </si>
+  <si>
+    <t>ADP</t>
   </si>
   <si>
     <t>ADBE</t>
   </si>
   <si>
-    <t>ADSK</t>
-  </si>
-  <si>
-    <t>ADP</t>
+    <t>CDNS</t>
+  </si>
+  <si>
+    <t>CRWD</t>
+  </si>
+  <si>
+    <t>MANH</t>
   </si>
   <si>
     <t>AZPN</t>
   </si>
   <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>MANH</t>
+    <t>QLYS</t>
+  </si>
+  <si>
+    <t>CDW</t>
+  </si>
+  <si>
+    <t>LTRPB</t>
+  </si>
+  <si>
+    <t>NICE</t>
+  </si>
+  <si>
+    <t>ABNB</t>
+  </si>
+  <si>
+    <t>ANSS</t>
   </si>
   <si>
     <t>VRSN</t>
   </si>
   <si>
-    <t>ANSS</t>
-  </si>
-  <si>
-    <t>CDW</t>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>CYBR</t>
+  </si>
+  <si>
+    <t>TTD</t>
+  </si>
+  <si>
+    <t>WDAY</t>
   </si>
   <si>
     <t>MSFT</t>
   </si>
   <si>
-    <t>LTRPB</t>
-  </si>
-  <si>
-    <t>NICE</t>
-  </si>
-  <si>
-    <t>WDAY</t>
-  </si>
-  <si>
     <t>VRSK</t>
   </si>
   <si>
-    <t>QLYS</t>
-  </si>
-  <si>
-    <t>PYPL</t>
-  </si>
-  <si>
-    <t>ABNB</t>
-  </si>
-  <si>
     <t>JKHY</t>
   </si>
   <si>
-    <t>TTD</t>
+    <t>SABRP</t>
+  </si>
+  <si>
+    <t>ZS</t>
   </si>
   <si>
     <t>MNDY</t>
   </si>
   <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>CRWD</t>
+    <t>GLBE</t>
+  </si>
+  <si>
+    <t>APPF</t>
+  </si>
+  <si>
+    <t>SPSC</t>
+  </si>
+  <si>
+    <t>DDOG</t>
+  </si>
+  <si>
+    <t>ZI</t>
+  </si>
+  <si>
+    <t>FFIV</t>
+  </si>
+  <si>
+    <t>XMTR</t>
+  </si>
+  <si>
+    <t>FIVN</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>CCSI</t>
+  </si>
+  <si>
+    <t>GTLB</t>
+  </si>
+  <si>
+    <t>CSGP</t>
+  </si>
+  <si>
+    <t>NATI</t>
+  </si>
+  <si>
+    <t>TRMB</t>
+  </si>
+  <si>
+    <t>BRZE</t>
+  </si>
+  <si>
+    <t>RMBL</t>
+  </si>
+  <si>
+    <t>DUOL</t>
+  </si>
+  <si>
+    <t>HCP</t>
+  </si>
+  <si>
+    <t>DSGX</t>
+  </si>
+  <si>
+    <t>ZD</t>
   </si>
   <si>
     <t>SPLK</t>
   </si>
   <si>
-    <t>PANW</t>
-  </si>
-  <si>
-    <t>FFIV</t>
-  </si>
-  <si>
-    <t>FIVN</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>SPSC</t>
-  </si>
-  <si>
-    <t>APPF</t>
-  </si>
-  <si>
-    <t>ZI</t>
-  </si>
-  <si>
-    <t>SABRP</t>
-  </si>
-  <si>
-    <t>GLBE</t>
-  </si>
-  <si>
-    <t>PTC</t>
-  </si>
-  <si>
-    <t>XMTR</t>
-  </si>
-  <si>
-    <t>TRMB</t>
-  </si>
-  <si>
-    <t>NATI</t>
-  </si>
-  <si>
-    <t>CSGP</t>
+    <t>VRNT</t>
+  </si>
+  <si>
+    <t>EBIX</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>OKTA</t>
+  </si>
+  <si>
+    <t>EVBG</t>
+  </si>
+  <si>
+    <t>FORTY</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>META</t>
   </si>
   <si>
     <t>ALRM</t>
   </si>
   <si>
-    <t>BRZE</t>
+    <t>TCX</t>
+  </si>
+  <si>
+    <t>FAZE</t>
+  </si>
+  <si>
+    <t>CFLT</t>
+  </si>
+  <si>
+    <t>SSTI</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>AGYS</t>
+  </si>
+  <si>
+    <t>BSY</t>
+  </si>
+  <si>
+    <t>CTXS</t>
+  </si>
+  <si>
+    <t>PRGS</t>
+  </si>
+  <si>
+    <t>UDMY</t>
+  </si>
+  <si>
+    <t>GDYN</t>
+  </si>
+  <si>
+    <t>PUBM</t>
+  </si>
+  <si>
+    <t>EBAY</t>
+  </si>
+  <si>
+    <t>SPT</t>
+  </si>
+  <si>
+    <t>LQDT</t>
+  </si>
+  <si>
+    <t>NTNX</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>DOX</t>
+  </si>
+  <si>
+    <t>DOCU</t>
+  </si>
+  <si>
+    <t>DMRC</t>
+  </si>
+  <si>
+    <t>WIX</t>
+  </si>
+  <si>
+    <t>KARO</t>
   </si>
   <si>
     <t>COUP</t>
   </si>
   <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>RMBL</t>
-  </si>
-  <si>
-    <t>FORTY</t>
-  </si>
-  <si>
-    <t>CCSI</t>
-  </si>
-  <si>
-    <t>HCP</t>
-  </si>
-  <si>
-    <t>ZD</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>GOOG</t>
-  </si>
-  <si>
-    <t>DSGX</t>
-  </si>
-  <si>
-    <t>SSTI</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>DUOL</t>
-  </si>
-  <si>
-    <t>TCX</t>
-  </si>
-  <si>
-    <t>GTLB</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>EBIX</t>
-  </si>
-  <si>
-    <t>DOX</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>EVBG</t>
-  </si>
-  <si>
-    <t>FAZE</t>
-  </si>
-  <si>
-    <t>LQDT</t>
-  </si>
-  <si>
-    <t>OKTA</t>
+    <t>KNBE</t>
+  </si>
+  <si>
+    <t>APPS</t>
+  </si>
+  <si>
+    <t>PYCR</t>
+  </si>
+  <si>
+    <t>SRAD</t>
+  </si>
+  <si>
+    <t>ABST</t>
+  </si>
+  <si>
+    <t>NGMS</t>
+  </si>
+  <si>
+    <t>TTGT</t>
+  </si>
+  <si>
+    <t>EVCM</t>
   </si>
   <si>
     <t>AKAM</t>
   </si>
   <si>
-    <t>CFLT</t>
-  </si>
-  <si>
-    <t>BSY</t>
-  </si>
-  <si>
-    <t>CTXS</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>PRGS</t>
-  </si>
-  <si>
-    <t>AGYS</t>
-  </si>
-  <si>
-    <t>PUBM</t>
-  </si>
-  <si>
-    <t>PYCR</t>
-  </si>
-  <si>
-    <t>KARO</t>
-  </si>
-  <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>APPS</t>
-  </si>
-  <si>
-    <t>UDMY</t>
-  </si>
-  <si>
-    <t>SRAD</t>
-  </si>
-  <si>
-    <t>KNBE</t>
+    <t>PERI</t>
+  </si>
+  <si>
+    <t>DCBO</t>
+  </si>
+  <si>
+    <t>NRDS</t>
   </si>
   <si>
     <t>SNCRL</t>
   </si>
   <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>TTGT</t>
-  </si>
-  <si>
-    <t>GDYN</t>
-  </si>
-  <si>
-    <t>EVCM</t>
+    <t>MOND</t>
+  </si>
+  <si>
+    <t>ALTR</t>
+  </si>
+  <si>
+    <t>QNST</t>
+  </si>
+  <si>
+    <t>BLZE</t>
+  </si>
+  <si>
+    <t>NCNO</t>
   </si>
   <si>
     <t>INSE</t>
   </si>
   <si>
-    <t>NTNX</t>
+    <t>APPN</t>
+  </si>
+  <si>
+    <t>LYFT</t>
   </si>
   <si>
     <t>SYM</t>
   </si>
   <si>
+    <t>AVDX</t>
+  </si>
+  <si>
+    <t>SDGR</t>
+  </si>
+  <si>
     <t>OSTK</t>
   </si>
   <si>
-    <t>LYFT</t>
-  </si>
-  <si>
-    <t>DMRC</t>
-  </si>
-  <si>
-    <t>QNST</t>
-  </si>
-  <si>
-    <t>NGMS</t>
+    <t>VCSA</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>VERX</t>
+  </si>
+  <si>
+    <t>FROG</t>
+  </si>
+  <si>
+    <t>BIDU</t>
+  </si>
+  <si>
+    <t>ACVA</t>
+  </si>
+  <si>
+    <t>WKME</t>
+  </si>
+  <si>
+    <t>BIGC</t>
+  </si>
+  <si>
+    <t>AMPL</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>DBX</t>
+  </si>
+  <si>
+    <t>VRAR</t>
+  </si>
+  <si>
+    <t>XPER</t>
+  </si>
+  <si>
+    <t>PCYG</t>
+  </si>
+  <si>
+    <t>CHNG</t>
+  </si>
+  <si>
+    <t>SEAT</t>
   </si>
   <si>
     <t>EXFY</t>
   </si>
   <si>
+    <t>BILI</t>
+  </si>
+  <si>
+    <t>IREN</t>
+  </si>
+  <si>
+    <t>HSTM</t>
+  </si>
+  <si>
+    <t>FPAY</t>
+  </si>
+  <si>
+    <t>AMSWA</t>
+  </si>
+  <si>
+    <t>EGIO</t>
+  </si>
+  <si>
+    <t>SABR</t>
+  </si>
+  <si>
+    <t>NLOK</t>
+  </si>
+  <si>
+    <t>SOHU</t>
+  </si>
+  <si>
+    <t>DIBS</t>
+  </si>
+  <si>
+    <t>ADSE</t>
+  </si>
+  <si>
+    <t>YY</t>
+  </si>
+  <si>
+    <t>HQY</t>
+  </si>
+  <si>
+    <t>FRSH</t>
+  </si>
+  <si>
+    <t>EMBK</t>
+  </si>
+  <si>
+    <t>TSRI</t>
+  </si>
+  <si>
+    <t>GRRR</t>
+  </si>
+  <si>
+    <t>ALKT</t>
+  </si>
+  <si>
+    <t>MITK</t>
+  </si>
+  <si>
+    <t>PWFL</t>
+  </si>
+  <si>
+    <t>NXPL</t>
+  </si>
+  <si>
+    <t>ATVI</t>
+  </si>
+  <si>
+    <t>POSH</t>
+  </si>
+  <si>
+    <t>AGMH</t>
+  </si>
+  <si>
+    <t>MTTR</t>
+  </si>
+  <si>
+    <t>RDVT</t>
+  </si>
+  <si>
+    <t>CVT</t>
+  </si>
+  <si>
+    <t>MNDT</t>
+  </si>
+  <si>
+    <t>SFIX</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>SSNT</t>
+  </si>
+  <si>
+    <t>QUBT</t>
+  </si>
+  <si>
+    <t>BLDE</t>
+  </si>
+  <si>
+    <t>VERI</t>
+  </si>
+  <si>
+    <t>SUMO</t>
+  </si>
+  <si>
+    <t>AUID</t>
+  </si>
+  <si>
     <t>SSNC</t>
   </si>
   <si>
-    <t>DCBO</t>
-  </si>
-  <si>
-    <t>NRDS</t>
-  </si>
-  <si>
-    <t>AMSWA</t>
-  </si>
-  <si>
-    <t>VERX</t>
-  </si>
-  <si>
-    <t>PERI</t>
-  </si>
-  <si>
-    <t>NCNO</t>
-  </si>
-  <si>
-    <t>DBX</t>
-  </si>
-  <si>
-    <t>ATVI</t>
-  </si>
-  <si>
-    <t>WKME</t>
-  </si>
-  <si>
-    <t>AVDX</t>
-  </si>
-  <si>
-    <t>ALTR</t>
-  </si>
-  <si>
-    <t>SPT</t>
-  </si>
-  <si>
-    <t>BLZE</t>
-  </si>
-  <si>
-    <t>BIGC</t>
-  </si>
-  <si>
-    <t>FROG</t>
+    <t>AUDC</t>
   </si>
   <si>
     <t>CHKP</t>
   </si>
   <si>
-    <t>HSTM</t>
-  </si>
-  <si>
-    <t>XPER</t>
-  </si>
-  <si>
-    <t>RDVT</t>
-  </si>
-  <si>
-    <t>GRRR</t>
-  </si>
-  <si>
-    <t>FPAY</t>
-  </si>
-  <si>
-    <t>PCYG</t>
-  </si>
-  <si>
-    <t>SEAT</t>
-  </si>
-  <si>
-    <t>ADSE</t>
+    <t>DOMO</t>
+  </si>
+  <si>
+    <t>PBTS</t>
   </si>
   <si>
     <t>OMQS</t>
   </si>
   <si>
-    <t>VRAR</t>
-  </si>
-  <si>
-    <t>SFIX</t>
-  </si>
-  <si>
-    <t>VCSA</t>
-  </si>
-  <si>
-    <t>AMPL</t>
-  </si>
-  <si>
-    <t>CHNG</t>
-  </si>
-  <si>
-    <t>IREN</t>
-  </si>
-  <si>
-    <t>NLOK</t>
-  </si>
-  <si>
-    <t>ABST</t>
-  </si>
-  <si>
-    <t>TLS</t>
-  </si>
-  <si>
-    <t>SABR</t>
-  </si>
-  <si>
-    <t>ACVA</t>
-  </si>
-  <si>
-    <t>SDGR</t>
-  </si>
-  <si>
-    <t>MOND</t>
-  </si>
-  <si>
-    <t>MITK</t>
+    <t>JAMF</t>
+  </si>
+  <si>
+    <t>AEYE</t>
+  </si>
+  <si>
+    <t>AIP</t>
+  </si>
+  <si>
+    <t>VRM</t>
+  </si>
+  <si>
+    <t>INTA</t>
+  </si>
+  <si>
+    <t>DUOT</t>
+  </si>
+  <si>
+    <t>YI</t>
+  </si>
+  <si>
+    <t>CGNT</t>
+  </si>
+  <si>
+    <t>GRAB</t>
+  </si>
+  <si>
+    <t>HLTH</t>
+  </si>
+  <si>
+    <t>LVOX</t>
+  </si>
+  <si>
+    <t>MTBCP</t>
+  </si>
+  <si>
+    <t>LTRPA</t>
+  </si>
+  <si>
+    <t>AVPT</t>
+  </si>
+  <si>
+    <t>XM</t>
+  </si>
+  <si>
+    <t>MGIC</t>
+  </si>
+  <si>
+    <t>AUR</t>
+  </si>
+  <si>
+    <t>MANT</t>
+  </si>
+  <si>
+    <t>SOUN</t>
+  </si>
+  <si>
+    <t>SHCR</t>
+  </si>
+  <si>
+    <t>UPXI</t>
+  </si>
+  <si>
+    <t>SNCR</t>
+  </si>
+  <si>
+    <t>MOXC</t>
+  </si>
+  <si>
+    <t>OPRA</t>
+  </si>
+  <si>
+    <t>NEGG</t>
+  </si>
+  <si>
+    <t>KSPN</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>BLIN</t>
+  </si>
+  <si>
+    <t>NTWK</t>
+  </si>
+  <si>
+    <t>GDRX</t>
+  </si>
+  <si>
+    <t>AMST</t>
+  </si>
+  <si>
+    <t>MRIN</t>
+  </si>
+  <si>
+    <t>IMMR</t>
+  </si>
+  <si>
+    <t>SOPH</t>
+  </si>
+  <si>
+    <t>BRAG</t>
+  </si>
+  <si>
+    <t>DAIO</t>
+  </si>
+  <si>
+    <t>CYN</t>
+  </si>
+  <si>
+    <t>KLTR</t>
+  </si>
+  <si>
+    <t>OLB</t>
+  </si>
+  <si>
+    <t>ADTH</t>
+  </si>
+  <si>
+    <t>EVER</t>
+  </si>
+  <si>
+    <t>VMEO</t>
+  </si>
+  <si>
+    <t>SBET</t>
+  </si>
+  <si>
+    <t>JFIN</t>
+  </si>
+  <si>
+    <t>AUUD</t>
+  </si>
+  <si>
+    <t>PHUN</t>
+  </si>
+  <si>
+    <t>NXGN</t>
+  </si>
+  <si>
+    <t>UXIN</t>
+  </si>
+  <si>
+    <t>TDUP</t>
+  </si>
+  <si>
+    <t>BCOV</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>PRCH</t>
+  </si>
+  <si>
+    <t>BCAN</t>
+  </si>
+  <si>
+    <t>LVOXU</t>
+  </si>
+  <si>
+    <t>GAN</t>
+  </si>
+  <si>
+    <t>AHG</t>
+  </si>
+  <si>
+    <t>MTBCO</t>
+  </si>
+  <si>
+    <t>ISPC</t>
+  </si>
+  <si>
+    <t>FRSX</t>
+  </si>
+  <si>
+    <t>SOBR</t>
+  </si>
+  <si>
+    <t>ALF</t>
+  </si>
+  <si>
+    <t>WTRH</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>RSSS</t>
+  </si>
+  <si>
+    <t>SECO</t>
+  </si>
+  <si>
+    <t>MRAI</t>
+  </si>
+  <si>
+    <t>TBLA</t>
+  </si>
+  <si>
+    <t>GBOX</t>
+  </si>
+  <si>
+    <t>CURI</t>
+  </si>
+  <si>
+    <t>DOYU</t>
+  </si>
+  <si>
+    <t>ALPP</t>
+  </si>
+  <si>
+    <t>DATS</t>
+  </si>
+  <si>
+    <t>BZFD</t>
+  </si>
+  <si>
+    <t>KPLT</t>
+  </si>
+  <si>
+    <t>TRVG</t>
+  </si>
+  <si>
+    <t>CREX</t>
+  </si>
+  <si>
+    <t>IBEX</t>
+  </si>
+  <si>
+    <t>GMBL</t>
+  </si>
+  <si>
+    <t>RNWK</t>
+  </si>
+  <si>
+    <t>IPDN</t>
+  </si>
+  <si>
+    <t>MOMO</t>
+  </si>
+  <si>
+    <t>MYSZ</t>
+  </si>
+  <si>
+    <t>SVRE</t>
+  </si>
+  <si>
+    <t>CUEN</t>
+  </si>
+  <si>
+    <t>BSQR</t>
+  </si>
+  <si>
+    <t>CLPS</t>
+  </si>
+  <si>
+    <t>SFET</t>
+  </si>
+  <si>
+    <t>SOPA</t>
+  </si>
+  <si>
+    <t>YVR</t>
+  </si>
+  <si>
+    <t>AVID</t>
+  </si>
+  <si>
+    <t>LCFY</t>
+  </si>
+  <si>
+    <t>CNDT</t>
+  </si>
+  <si>
+    <t>INTZ</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>IZEA</t>
+  </si>
+  <si>
+    <t>AESE</t>
+  </si>
+  <si>
+    <t>BEAT</t>
+  </si>
+  <si>
+    <t>STCN</t>
+  </si>
+  <si>
+    <t>MNDO</t>
+  </si>
+  <si>
+    <t>GROM</t>
+  </si>
+  <si>
+    <t>SPCB</t>
+  </si>
+  <si>
+    <t>GIGM</t>
+  </si>
+  <si>
+    <t>IPW</t>
+  </si>
+  <si>
+    <t>AHI</t>
+  </si>
+  <si>
+    <t>YNDX</t>
+  </si>
+  <si>
+    <t>GDEV</t>
+  </si>
+  <si>
+    <t>SMSI</t>
+  </si>
+  <si>
+    <t>KERN</t>
+  </si>
+  <si>
+    <t>VERB</t>
+  </si>
+  <si>
+    <t>INPX</t>
+  </si>
+  <si>
+    <t>GAME</t>
+  </si>
+  <si>
+    <t>ANGI</t>
+  </si>
+  <si>
+    <t>MARK</t>
+  </si>
+  <si>
+    <t>FSRD</t>
+  </si>
+  <si>
+    <t>SEAC</t>
+  </si>
+  <si>
+    <t>SLGG</t>
+  </si>
+  <si>
+    <t>MSGM</t>
+  </si>
+  <si>
+    <t>YJ</t>
+  </si>
+  <si>
+    <t>QTT</t>
+  </si>
+  <si>
+    <t>NXTP</t>
+  </si>
+  <si>
+    <t>CXDO</t>
+  </si>
+  <si>
+    <t>CRTD</t>
+  </si>
+  <si>
+    <t>IFBD</t>
+  </si>
+  <si>
+    <t>ZENV</t>
+  </si>
+  <si>
+    <t>GVP</t>
+  </si>
+  <si>
+    <t>BLBX</t>
+  </si>
+  <si>
+    <t>AVCT</t>
+  </si>
+  <si>
+    <t>ASUR</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>WAVD</t>
+  </si>
+  <si>
+    <t>VRNS</t>
+  </si>
+  <si>
+    <t>XNET</t>
+  </si>
+  <si>
+    <t>LIZI</t>
+  </si>
+  <si>
+    <t>SCWX</t>
+  </si>
+  <si>
+    <t>FCUV</t>
+  </si>
+  <si>
+    <t>DTST</t>
+  </si>
+  <si>
+    <t>QUMU</t>
+  </si>
+  <si>
+    <t>JG</t>
+  </si>
+  <si>
+    <t>LKCO</t>
+  </si>
+  <si>
+    <t>BNFT</t>
   </si>
   <si>
     <t>CTSH</t>
   </si>
   <si>
-    <t>CVT</t>
-  </si>
-  <si>
-    <t>EGIO</t>
-  </si>
-  <si>
-    <t>TSRI</t>
-  </si>
-  <si>
-    <t>POSH</t>
-  </si>
-  <si>
-    <t>FRSH</t>
-  </si>
-  <si>
-    <t>PWFL</t>
-  </si>
-  <si>
-    <t>MTTR</t>
-  </si>
-  <si>
-    <t>DIBS</t>
-  </si>
-  <si>
-    <t>AUDC</t>
-  </si>
-  <si>
-    <t>SOHU</t>
-  </si>
-  <si>
-    <t>MNDT</t>
-  </si>
-  <si>
-    <t>ALKT</t>
-  </si>
-  <si>
-    <t>NXPL</t>
-  </si>
-  <si>
-    <t>AIP</t>
-  </si>
-  <si>
-    <t>BLDE</t>
-  </si>
-  <si>
-    <t>EMBK</t>
-  </si>
-  <si>
-    <t>GRAB</t>
-  </si>
-  <si>
-    <t>UPXI</t>
-  </si>
-  <si>
-    <t>QUBT</t>
-  </si>
-  <si>
-    <t>AVID</t>
-  </si>
-  <si>
-    <t>APPN</t>
-  </si>
-  <si>
-    <t>AGMH</t>
-  </si>
-  <si>
-    <t>AUID</t>
-  </si>
-  <si>
-    <t>LVOX</t>
-  </si>
-  <si>
-    <t>PBTS</t>
-  </si>
-  <si>
-    <t>AVPT</t>
-  </si>
-  <si>
-    <t>DOMO</t>
-  </si>
-  <si>
-    <t>AEYE</t>
-  </si>
-  <si>
-    <t>AUR</t>
-  </si>
-  <si>
-    <t>SUMO</t>
-  </si>
-  <si>
-    <t>MTBCP</t>
-  </si>
-  <si>
-    <t>VRM</t>
-  </si>
-  <si>
-    <t>LTRPA</t>
-  </si>
-  <si>
-    <t>VMEO</t>
-  </si>
-  <si>
-    <t>SOUN</t>
-  </si>
-  <si>
-    <t>DUOT</t>
-  </si>
-  <si>
-    <t>SNCR</t>
-  </si>
-  <si>
-    <t>HLTH</t>
-  </si>
-  <si>
-    <t>SSNT</t>
-  </si>
-  <si>
-    <t>JAMF</t>
-  </si>
-  <si>
-    <t>CGNT</t>
-  </si>
-  <si>
-    <t>MOXC</t>
-  </si>
-  <si>
-    <t>SVRE</t>
-  </si>
-  <si>
-    <t>IDN</t>
-  </si>
-  <si>
-    <t>SOPH</t>
-  </si>
-  <si>
-    <t>KSPN</t>
-  </si>
-  <si>
-    <t>EVER</t>
-  </si>
-  <si>
-    <t>OPRA</t>
-  </si>
-  <si>
-    <t>NEGG</t>
-  </si>
-  <si>
-    <t>GBOX</t>
+    <t>EGAN</t>
+  </si>
+  <si>
+    <t>SASI</t>
+  </si>
+  <si>
+    <t>ALYA</t>
+  </si>
+  <si>
+    <t>SNCE</t>
+  </si>
+  <si>
+    <t>HTCR</t>
+  </si>
+  <si>
+    <t>FORA</t>
+  </si>
+  <si>
+    <t>PALT</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>AWRE</t>
+  </si>
+  <si>
+    <t>MTBC</t>
+  </si>
+  <si>
+    <t>DSP</t>
+  </si>
+  <si>
+    <t>WISH</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>CLBT</t>
+  </si>
+  <si>
+    <t>LOV</t>
+  </si>
+  <si>
+    <t>WFCF</t>
+  </si>
+  <si>
+    <t>LZ</t>
+  </si>
+  <si>
+    <t>BMBL</t>
+  </si>
+  <si>
+    <t>NCTY</t>
+  </si>
+  <si>
+    <t>REKR</t>
+  </si>
+  <si>
+    <t>SOFO</t>
+  </si>
+  <si>
+    <t>IDAI</t>
+  </si>
+  <si>
+    <t>DTSS</t>
+  </si>
+  <si>
+    <t>VRME</t>
+  </si>
+  <si>
+    <t>MIGI</t>
+  </si>
+  <si>
+    <t>WIMI</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>MGNI</t>
+  </si>
+  <si>
+    <t>ARQQ</t>
+  </si>
+  <si>
+    <t>CYRN</t>
+  </si>
+  <si>
+    <t>TWKS</t>
+  </si>
+  <si>
+    <t>GMGI</t>
+  </si>
+  <si>
+    <t>RDWR</t>
+  </si>
+  <si>
+    <t>CISO</t>
+  </si>
+  <si>
+    <t>MYPS</t>
+  </si>
+  <si>
+    <t>BRQS</t>
+  </si>
+  <si>
+    <t>FNGR</t>
+  </si>
+  <si>
+    <t>VQS</t>
+  </si>
+  <si>
+    <t>MAPS</t>
+  </si>
+  <si>
+    <t>HCTI</t>
+  </si>
+  <si>
+    <t>EGLX</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>MEDS</t>
   </si>
   <si>
     <t>OTEX</t>
   </si>
   <si>
-    <t>SBET</t>
-  </si>
-  <si>
-    <t>KLTR</t>
-  </si>
-  <si>
-    <t>BRAG</t>
-  </si>
-  <si>
-    <t>BCOV</t>
-  </si>
-  <si>
-    <t>VERI</t>
-  </si>
-  <si>
-    <t>YI</t>
-  </si>
-  <si>
-    <t>OLB</t>
-  </si>
-  <si>
-    <t>MANT</t>
-  </si>
-  <si>
-    <t>PHUN</t>
-  </si>
-  <si>
-    <t>BCAN</t>
-  </si>
-  <si>
-    <t>CYN</t>
-  </si>
-  <si>
-    <t>WFCF</t>
-  </si>
-  <si>
-    <t>MTBCO</t>
+    <t>AGIL</t>
+  </si>
+  <si>
+    <t>RMNI</t>
+  </si>
+  <si>
+    <t>SLNH</t>
+  </si>
+  <si>
+    <t>CTG</t>
+  </si>
+  <si>
+    <t>NTCT</t>
+  </si>
+  <si>
+    <t>DADA</t>
+  </si>
+  <si>
+    <t>MCLD</t>
+  </si>
+  <si>
+    <t>VNET</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>MTC</t>
+  </si>
+  <si>
+    <t>CSPI</t>
+  </si>
+  <si>
+    <t>XELA</t>
+  </si>
+  <si>
+    <t>NTES</t>
+  </si>
+  <si>
+    <t>LYLT</t>
+  </si>
+  <si>
+    <t>MNTV</t>
+  </si>
+  <si>
+    <t>INOD</t>
+  </si>
+  <si>
+    <t>SPNS</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>ANGH</t>
+  </si>
+  <si>
+    <t>CSGS</t>
+  </si>
+  <si>
+    <t>MTLS</t>
+  </si>
+  <si>
+    <t>SCPL</t>
+  </si>
+  <si>
+    <t>BLKB</t>
+  </si>
+  <si>
+    <t>LPSN</t>
+  </si>
+  <si>
+    <t>PFSW</t>
+  </si>
+  <si>
+    <t>CARG</t>
+  </si>
+  <si>
+    <t>PLTK</t>
+  </si>
+  <si>
+    <t>XELAP</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>LYT</t>
+  </si>
+  <si>
+    <t>PDD</t>
+  </si>
+  <si>
+    <t>SLNHP</t>
   </si>
   <si>
     <t>PLUS</t>
   </si>
   <si>
-    <t>BZFD</t>
-  </si>
-  <si>
-    <t>AUUD</t>
-  </si>
-  <si>
-    <t>KPLT</t>
-  </si>
-  <si>
-    <t>HTCR</t>
-  </si>
-  <si>
-    <t>DAIO</t>
-  </si>
-  <si>
-    <t>LVOXU</t>
-  </si>
-  <si>
-    <t>TDUP</t>
-  </si>
-  <si>
-    <t>LIZI</t>
-  </si>
-  <si>
-    <t>UXIN</t>
-  </si>
-  <si>
-    <t>INTZ</t>
-  </si>
-  <si>
-    <t>ALF</t>
-  </si>
-  <si>
-    <t>NTWK</t>
-  </si>
-  <si>
-    <t>BLIN</t>
-  </si>
-  <si>
-    <t>JFIN</t>
-  </si>
-  <si>
-    <t>ALPP</t>
-  </si>
-  <si>
-    <t>RSSS</t>
-  </si>
-  <si>
-    <t>WAVD</t>
-  </si>
-  <si>
-    <t>SOBR</t>
-  </si>
-  <si>
-    <t>MTBC</t>
-  </si>
-  <si>
-    <t>WTRH</t>
-  </si>
-  <si>
-    <t>MRIN</t>
-  </si>
-  <si>
-    <t>GAN</t>
-  </si>
-  <si>
-    <t>XM</t>
-  </si>
-  <si>
-    <t>NXGN</t>
-  </si>
-  <si>
-    <t>AHG</t>
-  </si>
-  <si>
-    <t>RDWR</t>
-  </si>
-  <si>
-    <t>TBLA</t>
-  </si>
-  <si>
-    <t>DATS</t>
-  </si>
-  <si>
-    <t>FRSX</t>
-  </si>
-  <si>
-    <t>BMBL</t>
-  </si>
-  <si>
-    <t>HQY</t>
-  </si>
-  <si>
-    <t>GIGM</t>
-  </si>
-  <si>
-    <t>CURI</t>
-  </si>
-  <si>
-    <t>INTA</t>
-  </si>
-  <si>
-    <t>CLPS</t>
-  </si>
-  <si>
-    <t>ISPC</t>
-  </si>
-  <si>
-    <t>MGIC</t>
-  </si>
-  <si>
-    <t>AESE</t>
-  </si>
-  <si>
-    <t>GMBL</t>
-  </si>
-  <si>
-    <t>MYSZ</t>
-  </si>
-  <si>
-    <t>GROM</t>
-  </si>
-  <si>
-    <t>TRVG</t>
-  </si>
-  <si>
-    <t>DOYU</t>
-  </si>
-  <si>
-    <t>GDRX</t>
-  </si>
-  <si>
-    <t>BASE</t>
-  </si>
-  <si>
-    <t>CUEN</t>
-  </si>
-  <si>
-    <t>LCFY</t>
-  </si>
-  <si>
-    <t>BSQR</t>
-  </si>
-  <si>
-    <t>RNWK</t>
-  </si>
-  <si>
-    <t>AMST</t>
-  </si>
-  <si>
-    <t>IDAI</t>
-  </si>
-  <si>
-    <t>AHI</t>
-  </si>
-  <si>
-    <t>SFET</t>
-  </si>
-  <si>
-    <t>SECO</t>
-  </si>
-  <si>
-    <t>IPDN</t>
-  </si>
-  <si>
-    <t>CNDT</t>
-  </si>
-  <si>
-    <t>ANGI</t>
-  </si>
-  <si>
-    <t>IZEA</t>
-  </si>
-  <si>
-    <t>BEAT</t>
-  </si>
-  <si>
-    <t>CREX</t>
-  </si>
-  <si>
-    <t>FSRD</t>
-  </si>
-  <si>
-    <t>YVR</t>
-  </si>
-  <si>
-    <t>STCN</t>
-  </si>
-  <si>
-    <t>SOPA</t>
-  </si>
-  <si>
-    <t>SLGG</t>
-  </si>
-  <si>
-    <t>CXDO</t>
-  </si>
-  <si>
-    <t>YNDX</t>
-  </si>
-  <si>
-    <t>GDEV</t>
-  </si>
-  <si>
-    <t>KERN</t>
-  </si>
-  <si>
-    <t>IPW</t>
-  </si>
-  <si>
-    <t>INPX</t>
-  </si>
-  <si>
-    <t>MARK</t>
-  </si>
-  <si>
-    <t>MNDO</t>
-  </si>
-  <si>
-    <t>GAME</t>
-  </si>
-  <si>
-    <t>SHCR</t>
-  </si>
-  <si>
-    <t>VERB</t>
-  </si>
-  <si>
-    <t>VS</t>
-  </si>
-  <si>
-    <t>YJ</t>
-  </si>
-  <si>
-    <t>SPCB</t>
-  </si>
-  <si>
-    <t>SEAC</t>
-  </si>
-  <si>
-    <t>IMMR</t>
-  </si>
-  <si>
-    <t>SY</t>
-  </si>
-  <si>
-    <t>MSGM</t>
-  </si>
-  <si>
-    <t>FORA</t>
-  </si>
-  <si>
-    <t>DTST</t>
-  </si>
-  <si>
-    <t>VRNS</t>
-  </si>
-  <si>
-    <t>AVCT</t>
-  </si>
-  <si>
-    <t>CRTD</t>
-  </si>
-  <si>
-    <t>QTT</t>
-  </si>
-  <si>
-    <t>XNET</t>
-  </si>
-  <si>
-    <t>CSGS</t>
-  </si>
-  <si>
-    <t>NXTP</t>
-  </si>
-  <si>
-    <t>PRCH</t>
-  </si>
-  <si>
-    <t>MGNI</t>
-  </si>
-  <si>
-    <t>IFBD</t>
-  </si>
-  <si>
-    <t>QUMU</t>
-  </si>
-  <si>
-    <t>MRAI</t>
-  </si>
-  <si>
-    <t>ASUR</t>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>GVP</t>
-  </si>
-  <si>
-    <t>ZENV</t>
-  </si>
-  <si>
-    <t>WISH</t>
-  </si>
-  <si>
-    <t>JG</t>
-  </si>
-  <si>
-    <t>MYPS</t>
-  </si>
-  <si>
-    <t>LKCO</t>
-  </si>
-  <si>
-    <t>AWRE</t>
-  </si>
-  <si>
-    <t>ALYA</t>
-  </si>
-  <si>
-    <t>BNFT</t>
-  </si>
-  <si>
-    <t>BLBX</t>
-  </si>
-  <si>
-    <t>REKR</t>
-  </si>
-  <si>
-    <t>PALT</t>
-  </si>
-  <si>
-    <t>SMSI</t>
-  </si>
-  <si>
-    <t>CLBT</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>LOV</t>
-  </si>
-  <si>
-    <t>SASI</t>
-  </si>
-  <si>
-    <t>SJ</t>
-  </si>
-  <si>
-    <t>MAPS</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>DSP</t>
-  </si>
-  <si>
-    <t>DTSS</t>
-  </si>
-  <si>
-    <t>LZ</t>
-  </si>
-  <si>
-    <t>SNCE</t>
-  </si>
-  <si>
-    <t>SOFO</t>
-  </si>
-  <si>
-    <t>MEDS</t>
-  </si>
-  <si>
-    <t>MIGI</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>HCTI</t>
-  </si>
-  <si>
-    <t>NCTY</t>
-  </si>
-  <si>
-    <t>CYRN</t>
-  </si>
-  <si>
-    <t>EGLX</t>
-  </si>
-  <si>
-    <t>WIMI</t>
-  </si>
-  <si>
-    <t>ADTH</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>FNGR</t>
-  </si>
-  <si>
-    <t>VQS</t>
-  </si>
-  <si>
-    <t>EGAN</t>
-  </si>
-  <si>
-    <t>BRQS</t>
-  </si>
-  <si>
-    <t>AGIL</t>
-  </si>
-  <si>
-    <t>NTCT</t>
-  </si>
-  <si>
-    <t>MCLD</t>
-  </si>
-  <si>
-    <t>GMGI</t>
-  </si>
-  <si>
-    <t>CISO</t>
-  </si>
-  <si>
-    <t>CTG</t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
-    <t>RMNI</t>
-  </si>
-  <si>
-    <t>MOMO</t>
-  </si>
-  <si>
-    <t>IBEX</t>
-  </si>
-  <si>
-    <t>ARQQ</t>
-  </si>
-  <si>
-    <t>TWKS</t>
-  </si>
-  <si>
-    <t>IQ</t>
-  </si>
-  <si>
-    <t>VRME</t>
-  </si>
-  <si>
-    <t>SLNH</t>
-  </si>
-  <si>
-    <t>INOD</t>
-  </si>
-  <si>
-    <t>CSPI</t>
-  </si>
-  <si>
-    <t>SCWX</t>
-  </si>
-  <si>
-    <t>VNET</t>
-  </si>
-  <si>
-    <t>XELA</t>
-  </si>
-  <si>
-    <t>MTC</t>
-  </si>
-  <si>
-    <t>SCPL</t>
-  </si>
-  <si>
-    <t>LYLT</t>
-  </si>
-  <si>
-    <t>PFSW</t>
-  </si>
-  <si>
-    <t>SLNHP</t>
-  </si>
-  <si>
-    <t>MNTV</t>
-  </si>
-  <si>
-    <t>KC</t>
-  </si>
-  <si>
-    <t>XELAP</t>
-  </si>
-  <si>
-    <t>ANGH</t>
-  </si>
-  <si>
-    <t>MTLS</t>
-  </si>
-  <si>
-    <t>BLKB</t>
+    <t>API</t>
+  </si>
+  <si>
+    <t>RXT</t>
+  </si>
+  <si>
+    <t>GMBLP</t>
   </si>
   <si>
     <t>DCT</t>
   </si>
   <si>
-    <t>RXT</t>
-  </si>
-  <si>
-    <t>LYT</t>
-  </si>
-  <si>
-    <t>FCUV</t>
-  </si>
-  <si>
-    <t>DADA</t>
-  </si>
-  <si>
-    <t>SPNS</t>
-  </si>
-  <si>
-    <t>LPSN</t>
-  </si>
-  <si>
-    <t>DH</t>
+    <t>BZUN</t>
+  </si>
+  <si>
+    <t>TWOU</t>
+  </si>
+  <si>
+    <t>LFLY</t>
+  </si>
+  <si>
+    <t>UPLD</t>
+  </si>
+  <si>
+    <t>GRVY</t>
+  </si>
+  <si>
+    <t>RPD</t>
+  </si>
+  <si>
+    <t>TENB</t>
   </si>
   <si>
     <t>CYXT</t>
   </si>
   <si>
-    <t>CARG</t>
-  </si>
-  <si>
-    <t>GMBLP</t>
-  </si>
-  <si>
-    <t>PLTK</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>BZUN</t>
-  </si>
-  <si>
-    <t>GRVY</t>
-  </si>
-  <si>
-    <t>LFLY</t>
-  </si>
-  <si>
-    <t>YY</t>
-  </si>
-  <si>
-    <t>TWOU</t>
-  </si>
-  <si>
-    <t>BILI</t>
-  </si>
-  <si>
-    <t>UPLD</t>
-  </si>
-  <si>
-    <t>TENB</t>
+    <t>CERT</t>
+  </si>
+  <si>
+    <t>GDS</t>
+  </si>
+  <si>
+    <t>CRNC</t>
   </si>
   <si>
     <t>CVLT</t>
   </si>
   <si>
-    <t>RPD</t>
-  </si>
-  <si>
-    <t>CRNC</t>
-  </si>
-  <si>
-    <t>CERT</t>
-  </si>
-  <si>
-    <t>BZ</t>
-  </si>
-  <si>
     <t>FTNT</t>
   </si>
   <si>
     <t>STIX</t>
   </si>
   <si>
-    <t>GDS</t>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>PRFT</t>
   </si>
   <si>
     <t>IAC</t>
   </si>
   <si>
-    <t>APP</t>
-  </si>
-  <si>
     <t>MTCH</t>
   </si>
   <si>
-    <t>PRFT</t>
+    <t>PEGA</t>
+  </si>
+  <si>
+    <t>OPRX</t>
+  </si>
+  <si>
+    <t>TTEC</t>
   </si>
   <si>
     <t>ZM</t>
-  </si>
-  <si>
-    <t>NTES</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>OPRX</t>
-  </si>
-  <si>
-    <t>TTEC</t>
-  </si>
-  <si>
-    <t>PDD</t>
-  </si>
-  <si>
-    <t>BIDU</t>
   </si>
   <si>
     <t>EIGI</t>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>272.8900146484375</v>
+        <v>282.3099975585938</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>118.6999969482422</v>
+        <v>108.5099945068359</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>83.72001647949219</v>
+        <v>104.239990234375</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>81.94000244140625</v>
+        <v>81.6400146484375</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>77.57000732421875</v>
+        <v>78.92999267578125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>66.29000854492188</v>
+        <v>75.46000671386719</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59.29998779296875</v>
+        <v>59.55999755859375</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>59.11000061035156</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>50.62998962402344</v>
+        <v>48.18998718261719</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1734,7 +1734,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>49.78001403808594</v>
+        <v>48.16999816894531</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1742,7 +1742,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>40.17001342773438</v>
+        <v>37.8699951171875</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1750,7 +1750,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.00999450683594</v>
+        <v>34.77000427246094</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1758,7 +1758,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.32999420166016</v>
+        <v>34.3800048828125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1766,7 +1766,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.13999938964844</v>
+        <v>33.75000762939453</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1774,7 +1774,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.33000183105469</v>
+        <v>32.95001220703125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1782,7 +1782,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.80999755859375</v>
+        <v>32.03999328613281</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1790,7 +1790,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.864013671875</v>
+        <v>30.76614379882812</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1798,7 +1798,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.51000213623047</v>
+        <v>29.27000045776367</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1806,7 +1806,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.49000549316406</v>
+        <v>28.24000549316406</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1814,7 +1814,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.59999084472656</v>
+        <v>27.94999694824219</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1822,7 +1822,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.48001098632812</v>
+        <v>27.91999816894531</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1830,7 +1830,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.44999694824219</v>
+        <v>27.27999877929688</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1838,7 +1838,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.72000122070312</v>
+        <v>26.8800048828125</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.68000030517578</v>
+        <v>25.84000396728516</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>24.25</v>
+        <v>24.34000396728516</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>23.80000305175781</v>
+        <v>22.77999877929688</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>23.22999572753906</v>
+        <v>22.56402587890625</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>23.07999420166016</v>
+        <v>22.22000122070312</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>21.96000671386719</v>
+        <v>20.15998840332031</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>20.76000213623047</v>
+        <v>18.28593444824219</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>19.57000732421875</v>
+        <v>18.21000671386719</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>18.5</v>
+        <v>17.45999908447266</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>18.29000091552734</v>
+        <v>17.26999855041504</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>16.71000671386719</v>
+        <v>16.55000305175781</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>16.69999694824219</v>
+        <v>15.44999694824219</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>16.38999938964844</v>
+        <v>15.13999938964844</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>16.1099967956543</v>
+        <v>14.59000015258789</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>15.87593841552734</v>
+        <v>14.38999938964844</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>14.1299991607666</v>
+        <v>13.48999786376953</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>13.16000366210938</v>
+        <v>13.34999847412109</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>11.93000030517578</v>
+        <v>12.98000335693359</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1990,7 +1990,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>11.78000259399414</v>
+        <v>12.72000122070312</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>11.49199485778809</v>
+        <v>12.36000061035156</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>11.32999801635742</v>
+        <v>12.09000015258789</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>11.26999664306641</v>
+        <v>11.17199516296387</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>11.18999862670898</v>
+        <v>11.17000198364258</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>10.66999816894531</v>
+        <v>10.9900016784668</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>10.49000549316406</v>
+        <v>10.28999996185303</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2046,7 +2046,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>10.36999988555908</v>
+        <v>10.18000030517578</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2054,7 +2054,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>10.1199951171875</v>
+        <v>9.809999465942383</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>9.419998168945312</v>
+        <v>9.289997100830078</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>9.14000129699707</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>9.010002136230469</v>
+        <v>8.660003662109375</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>8.829994201660156</v>
+        <v>8.540000915527344</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>8.747505187988281</v>
+        <v>8.329999923706055</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>8.590000152587891</v>
+        <v>8.327499389648438</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>8.549999237060547</v>
+        <v>8.169998168945312</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>8.539997100830078</v>
+        <v>7.880001068115234</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>8.247001647949219</v>
+        <v>7.709999084472656</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>8.149993896484375</v>
+        <v>7.687004089355469</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7.960002899169922</v>
+        <v>7.529998779296875</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7.930000305175781</v>
+        <v>7.44000244140625</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7.900001525878906</v>
+        <v>7.420001983642578</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7.110000610351562</v>
+        <v>7.410000801086426</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2174,7 +2174,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7.080001831054688</v>
+        <v>6.899999618530273</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6.710006713867188</v>
+        <v>6.670001983642578</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2190,7 +2190,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6.479999542236328</v>
+        <v>5.959999084472656</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2198,7 +2198,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6.410000801086426</v>
+        <v>5.649997711181641</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2206,7 +2206,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5.920001029968262</v>
+        <v>5.530002593994141</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.80999755859375</v>
+        <v>5.529998779296875</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5.709999084472656</v>
+        <v>5.389999389648438</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2230,7 +2230,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.700000762939453</v>
+        <v>5.310000419616699</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2238,7 +2238,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.670001983642578</v>
+        <v>5.170000076293945</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.599998474121094</v>
+        <v>4.989998817443848</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.400001525878906</v>
+        <v>4.920001983642578</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.340000152587891</v>
+        <v>4.869998931884766</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.200000762939453</v>
+        <v>4.779999732971191</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.130000114440918</v>
+        <v>4.779999732971191</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2286,7 +2286,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.969999313354492</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2294,7 +2294,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4.923999786376953</v>
+        <v>4.639999389648438</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2302,7 +2302,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4.790000915527344</v>
+        <v>4.55999755859375</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2310,7 +2310,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4.739999771118164</v>
+        <v>4.480000495910645</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2318,7 +2318,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4.590000152587891</v>
+        <v>4.469993591308594</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2326,7 +2326,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4.539999485015869</v>
+        <v>4.389999389648438</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2334,7 +2334,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3.980000495910645</v>
+        <v>4.380001068115234</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>3.969999313354492</v>
+        <v>4.289999961853027</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>3.909996032714844</v>
+        <v>4.120000839233398</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>3.669998168945312</v>
+        <v>4.090000152587891</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2366,7 +2366,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>3.649999618530273</v>
+        <v>4.019999980926514</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>3.640000343322754</v>
+        <v>3.673738479614258</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2382,7 +2382,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>3.610000610351562</v>
+        <v>3.520000457763672</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>3.49000072479248</v>
+        <v>3.470001220703125</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>3.469999313354492</v>
+        <v>3.409999847412109</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>3.469999313354492</v>
+        <v>3.299995422363281</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>3.369999885559082</v>
+        <v>3.229999542236328</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>3.249999046325684</v>
+        <v>3.129999160766602</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>3.229999542236328</v>
+        <v>3.110000133514404</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>3.149999618530273</v>
+        <v>2.969999313354492</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>3.099998474121094</v>
+        <v>2.939999580383301</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2454,7 +2454,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>2.880001068115234</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>2.770000457763672</v>
+        <v>2.739999771118164</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>2.759999752044678</v>
+        <v>2.71999979019165</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>2.685211181640625</v>
+        <v>2.69999885559082</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>2.579999923706055</v>
+        <v>2.690000534057617</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>2.549999237060547</v>
+        <v>2.639999389648438</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>2.460000991821289</v>
+        <v>2.560000419616699</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>2.450000762939453</v>
+        <v>2.539999961853027</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>2.409996032714844</v>
+        <v>2.490000247955322</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>2.300000190734863</v>
+        <v>2.469999313354492</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>2.28000020980835</v>
+        <v>2.440000534057617</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>2.270000457763672</v>
+        <v>2.440000057220459</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>2.270000457763672</v>
+        <v>2.420000076293945</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>2.269999980926514</v>
+        <v>2.390000343322754</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>2.159999847412109</v>
+        <v>2.319999694824219</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>2.059999465942383</v>
+        <v>2.290008544921875</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>2.010002136230469</v>
+        <v>2.289999961853027</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.980001449584961</v>
+        <v>2.239999771118164</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.969999313354492</v>
+        <v>2.149999618530273</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.959999084472656</v>
+        <v>2.109999656677246</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.920000076293945</v>
+        <v>1.989999771118164</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.860000014305115</v>
+        <v>1.920000076293945</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1.819999694824219</v>
+        <v>1.920000076293945</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2638,7 +2638,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1.769999980926514</v>
+        <v>1.879999160766602</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1.759999752044678</v>
+        <v>1.860000133514404</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1.75</v>
+        <v>1.829999923706055</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.739999771118164</v>
+        <v>1.78000020980835</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1.724999904632568</v>
+        <v>1.769998550415039</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2678,7 +2678,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1.71999979019165</v>
+        <v>1.760000228881836</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.710000038146973</v>
+        <v>1.650000095367432</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1.700000762939453</v>
+        <v>1.590000152587891</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2702,7 +2702,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1.700000286102295</v>
+        <v>1.560000061988831</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1.695484161376953</v>
+        <v>1.555212020874023</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2718,7 +2718,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.64373779296875</v>
+        <v>1.539999961853027</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2734,7 +2734,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.510000228881836</v>
+        <v>1.535482406616211</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1.510000228881836</v>
+        <v>1.520000457763672</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2750,7 +2750,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.469999313354492</v>
+        <v>1.519999980926514</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2758,7 +2758,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.399999618530273</v>
+        <v>1.450000286102295</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2766,7 +2766,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.380000114440918</v>
+        <v>1.439998626708984</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.374473571777344</v>
+        <v>1.430000305175781</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.320000171661377</v>
+        <v>1.420000076293945</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2790,7 +2790,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.299999952316284</v>
+        <v>1.409999847412109</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.279999732971191</v>
+        <v>1.380000114440918</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.25</v>
+        <v>1.369999885559082</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2814,7 +2814,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.24000072479248</v>
+        <v>1.359999656677246</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2822,7 +2822,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.230000019073486</v>
+        <v>1.320000648498535</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2830,7 +2830,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.209999799728394</v>
+        <v>1.240000009536743</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2838,7 +2838,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.199999809265137</v>
+        <v>1.230000138282776</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2846,7 +2846,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.164997100830078</v>
+        <v>1.209999084472656</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1.139999389648438</v>
+        <v>1.180000305175781</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2862,7 +2862,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1.059999465942383</v>
+        <v>1.144999980926514</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2870,7 +2870,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1.049999237060547</v>
+        <v>1.120000123977661</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2878,7 +2878,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1.020000100135803</v>
+        <v>1.10999870300293</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2886,7 +2886,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.9900002479553223</v>
+        <v>1.090000152587891</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.9800000190734863</v>
+        <v>1.05000114440918</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2902,7 +2902,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.9299993515014648</v>
+        <v>1.049999713897705</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.9100000858306885</v>
+        <v>1.029999971389771</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2918,7 +2918,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.8700003623962402</v>
+        <v>1.029999971389771</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.869999885559082</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2934,7 +2934,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.8499984741210938</v>
+        <v>0.9899997711181641</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2942,7 +2942,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.7900009155273438</v>
+        <v>0.9800000190734863</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2950,7 +2950,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.7850000858306885</v>
+        <v>0.9499998092651367</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2958,7 +2958,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.75</v>
+        <v>0.929999828338623</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2966,7 +2966,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.7099999189376831</v>
+        <v>0.9099998474121094</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2974,7 +2974,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.6950000524520874</v>
+        <v>0.9049968719482422</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2982,7 +2982,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.6599998474121094</v>
+        <v>0.9000015258789062</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2990,7 +2990,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.6500015258789062</v>
+        <v>0.8700008392333984</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.6399998664855957</v>
+        <v>0.8050000667572021</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.6200000047683716</v>
+        <v>0.8000001907348633</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.619999885559082</v>
+        <v>0.779998779296875</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3022,7 +3022,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.6018352508544922</v>
+        <v>0.7399997711181641</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3030,7 +3030,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.5900000333786011</v>
+        <v>0.7200002670288086</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.5630000233650208</v>
+        <v>0.7100000381469727</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.559999942779541</v>
+        <v>0.6899995803833008</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.5499999523162842</v>
+        <v>0.6700000762939453</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.5450000762939453</v>
+        <v>0.6500000953674316</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.5400000810623169</v>
+        <v>0.630000114440918</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.5399999618530273</v>
+        <v>0.630000114440918</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3086,7 +3086,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.5399999618530273</v>
+        <v>0.6099998950958252</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.5100002288818359</v>
+        <v>0.6000000238418579</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.4800000190734863</v>
+        <v>0.5918350219726562</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.4800000190734863</v>
+        <v>0.5830000042915344</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.4749999046325684</v>
+        <v>0.559999942779541</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.4700000286102295</v>
+        <v>0.5399999618530273</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.4500002861022949</v>
+        <v>0.5399990081787109</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.4500000476837158</v>
+        <v>0.5100001096725464</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3150,7 +3150,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.4300003051757812</v>
+        <v>0.4900054931640625</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3158,7 +3158,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.4300003051757812</v>
+        <v>0.4700000286102295</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3166,7 +3166,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.4100000858306885</v>
+        <v>0.4599999189376831</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.4000000953674316</v>
+        <v>0.4500002861022949</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.3899993896484375</v>
+        <v>0.4500000476837158</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3190,7 +3190,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.3799999952316284</v>
+        <v>0.4500000476837158</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.369999885559082</v>
+        <v>0.440000057220459</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.3599996566772461</v>
+        <v>0.4300000667572021</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.3599996566772461</v>
+        <v>0.4300000667572021</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3222,7 +3222,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.3299999237060547</v>
+        <v>0.4200000762939453</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3230,7 +3230,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.320000171661377</v>
+        <v>0.4099999666213989</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3238,7 +3238,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.3175000548362732</v>
+        <v>0.4099998474121094</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3246,7 +3246,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.3000030517578125</v>
+        <v>0.4000000953674316</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3254,7 +3254,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.2999999523162842</v>
+        <v>0.4000000059604645</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3262,7 +3262,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.2999997138977051</v>
+        <v>0.3999999761581421</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3270,7 +3270,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.2900000810623169</v>
+        <v>0.369999885559082</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3278,7 +3278,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.2799997329711914</v>
+        <v>0.3500001430511475</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.2620010375976562</v>
+        <v>0.3439998626708984</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.2600021362304688</v>
+        <v>0.3400001525878906</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3302,7 +3302,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.2599999904632568</v>
+        <v>0.3300000429153442</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3310,7 +3310,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.2559999823570251</v>
+        <v>0.3299999237060547</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.25</v>
+        <v>0.32750004529953</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.25</v>
+        <v>0.3100001811981201</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3334,7 +3334,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.2100000381469727</v>
+        <v>0.3000001907348633</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.2100000381469727</v>
+        <v>0.3000001907348633</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.2100000381469727</v>
+        <v>0.3000000715255737</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.2100000381469727</v>
+        <v>0.2999999523162842</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3366,7 +3366,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.2100000083446503</v>
+        <v>0.2959999442100525</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3374,7 +3374,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.2099997997283936</v>
+        <v>0.2899999618530273</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.2089999914169312</v>
+        <v>0.2899990081787109</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.2000000476837158</v>
+        <v>0.2849999964237213</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3398,7 +3398,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.1999999284744263</v>
+        <v>0.2799999713897705</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.1800000667572021</v>
+        <v>0.2799997329711914</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3414,7 +3414,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.1640000343322754</v>
+        <v>0.2400000095367432</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3422,7 +3422,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.1600000858306885</v>
+        <v>0.2300000190734863</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.1599999666213989</v>
+        <v>0.2199997901916504</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3438,7 +3438,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.1599999666213989</v>
+        <v>0.2100000381469727</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.1549999713897705</v>
+        <v>0.2100000381469727</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.1500000059604645</v>
+        <v>0.2000000476837158</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.1499999761581421</v>
+        <v>0.1820011138916016</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.1399998664855957</v>
+        <v>0.1499998569488525</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3478,7 +3478,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.1399993896484375</v>
+        <v>0.1489999890327454</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.1399993896484375</v>
+        <v>0.1410000324249268</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.1299999952316284</v>
+        <v>0.1399999856948853</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.1299991607666016</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.1200001239776611</v>
+        <v>0.1209999918937683</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.1140000224113464</v>
+        <v>0.1159999966621399</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.1100006103515625</v>
+        <v>0.1130000352859497</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.1100006103515625</v>
+        <v>0.1100001335144043</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.1099996566772461</v>
+        <v>0.1099998950958252</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.1080000400543213</v>
+        <v>0.1000000238418579</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.1050000190734863</v>
+        <v>0.1000000238418579</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.1000003814697266</v>
+        <v>0.09000003337860107</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.1000000238418579</v>
+        <v>0.08999991416931152</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.09700003266334534</v>
+        <v>0.08000004291534424</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3614,7 +3614,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.09600000083446503</v>
+        <v>0.07999998331069946</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.0910000205039978</v>
+        <v>0.07999992370605469</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.09000003337860107</v>
+        <v>0.07500001788139343</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3638,7 +3638,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.07999992370605469</v>
+        <v>0.06999999284744263</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3646,7 +3646,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.07999992370605469</v>
+        <v>0.06999999284744263</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3654,7 +3654,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.07999992370605469</v>
+        <v>0.06999969482421875</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.07400000095367432</v>
+        <v>0.0650000125169754</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3670,7 +3670,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.06099998950958252</v>
+        <v>0.06499981880187988</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3678,7 +3678,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.06000006198883057</v>
+        <v>0.06099998950958252</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3686,7 +3686,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.06000000238418579</v>
+        <v>0.06000006198883057</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3694,7 +3694,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.0599999725818634</v>
+        <v>0.06000006198883057</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.05999994277954102</v>
+        <v>0.06000003218650818</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.05099999904632568</v>
+        <v>0.05999994277954102</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.04999998211860657</v>
+        <v>0.05000001192092896</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3726,7 +3726,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.04099997878074646</v>
+        <v>0.04999923706054688</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3734,7 +3734,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.04000002145767212</v>
+        <v>0.04100000858306885</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3758,7 +3758,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.03100001811981201</v>
+        <v>0.03700000047683716</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3766,7 +3766,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.03000009059906006</v>
+        <v>0.0220000147819519</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3774,7 +3774,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.02999997138977051</v>
+        <v>0.02000010013580322</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3782,7 +3782,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.01800000667572021</v>
+        <v>0.01999998092651367</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3790,7 +3790,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.01000002026557922</v>
+        <v>0.01999998092651367</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3798,7 +3798,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.009999990463256836</v>
+        <v>0.01999998092651367</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3806,7 +3806,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.009999990463256836</v>
+        <v>0.01399999856948853</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3814,7 +3814,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>0.009999990463256836</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3822,7 +3822,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>0.009999990463256836</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3830,7 +3830,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>0.009999990463256836</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3838,7 +3838,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>0.002000033855438232</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3846,7 +3846,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>-0.004999995231628418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3854,7 +3854,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>-0.009999990463256836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3862,7 +3862,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>-0.01900000870227814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3870,7 +3870,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>-0.02000001072883606</v>
+        <v>-0.001000002026557922</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3878,7 +3878,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>-0.02000021934509277</v>
+        <v>-0.0220000147819519</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3886,7 +3886,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>-0.02400004863739014</v>
+        <v>-0.02500000596046448</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3894,7 +3894,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>-0.03000009059906006</v>
+        <v>-0.02700001001358032</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3902,7 +3902,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>-0.03300002217292786</v>
+        <v>-0.02999973297119141</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3910,7 +3910,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>-0.03300002217292786</v>
+        <v>-0.0300000011920929</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3918,7 +3918,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>-0.03999996185302734</v>
+        <v>-0.04199999570846558</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3934,7 +3934,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>-0.05000001192092896</v>
+        <v>-0.06000000238418579</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3942,7 +3942,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>-0.05000019073486328</v>
+        <v>-0.06499999761581421</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3950,7 +3950,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>-0.06099998950958252</v>
+        <v>-0.07999998331069946</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3958,7 +3958,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>-0.06699997186660767</v>
+        <v>-0.07999998331069946</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3966,7 +3966,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>-0.06999969482421875</v>
+        <v>-0.08500000834465027</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3974,7 +3974,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>-0.06999993324279785</v>
+        <v>-0.09500002861022949</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3982,7 +3982,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>-0.07999992370605469</v>
+        <v>-0.09700000286102295</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3990,7 +3990,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>-0.08499999344348907</v>
+        <v>-0.09900000691413879</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3998,7 +3998,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>-0.08900004625320435</v>
+        <v>-0.09999990463256836</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4006,7 +4006,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>-0.0899999737739563</v>
+        <v>-0.1000000238418579</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4014,7 +4014,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>-0.09000003337860107</v>
+        <v>-0.1100000143051147</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4022,7 +4022,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>-0.09000015258789062</v>
+        <v>-0.113999992609024</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4030,7 +4030,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>-0.09400001168251038</v>
+        <v>-0.119999885559082</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4038,7 +4038,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>-0.09999990463256836</v>
+        <v>-0.1199999898672104</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4046,7 +4046,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>-0.1000003814697266</v>
+        <v>-0.1200000047683716</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4054,7 +4054,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>-0.1040000021457672</v>
+        <v>-0.1299991607666016</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4062,7 +4062,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>-0.1100000143051147</v>
+        <v>-0.1299999952316284</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4070,7 +4070,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>-0.1180000305175781</v>
+        <v>-0.1299999952316284</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4078,7 +4078,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>-0.119999885559082</v>
+        <v>-0.130000114440918</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4086,7 +4086,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>-0.125</v>
+        <v>-0.130000114440918</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4094,7 +4094,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>-0.1299999952316284</v>
+        <v>-0.130000114440918</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4102,7 +4102,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>-0.1399998664855957</v>
+        <v>-0.1499999761581421</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4110,7 +4110,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>-0.1499999761581421</v>
+        <v>-0.1699999570846558</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4118,7 +4118,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>-0.1599999666213989</v>
+        <v>-0.1759999990463257</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4126,7 +4126,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>-0.1600003242492676</v>
+        <v>-0.190000057220459</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4134,7 +4134,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>-0.1670000106096268</v>
+        <v>-0.195526123046875</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4142,7 +4142,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>-0.1800000667572021</v>
+        <v>-0.1999998092651367</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4150,7 +4150,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>-0.1800000667572021</v>
+        <v>-0.1999999284744263</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4158,7 +4158,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>-0.1800003051757812</v>
+        <v>-0.2000000476837158</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4174,7 +4174,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>-0.2000000476837158</v>
+        <v>-0.2099997997283936</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4182,7 +4182,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>-0.2000000476837158</v>
+        <v>-0.2100000381469727</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4198,7 +4198,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>-0.2100000381469727</v>
+        <v>-0.2200002670288086</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4206,7 +4206,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>-0.2400002479553223</v>
+        <v>-0.2299997806549072</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4214,7 +4214,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>-0.25</v>
+        <v>-0.2300000190734863</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4222,7 +4222,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>-0.25</v>
+        <v>-0.2549998760223389</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4230,7 +4230,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>-0.2699999809265137</v>
+        <v>-0.2599997520446777</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4238,7 +4238,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>-0.2799999713897705</v>
+        <v>-0.2599999904632568</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4254,7 +4254,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>-0.2899999618530273</v>
+        <v>-0.2999997138977051</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4278,7 +4278,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>-0.3300000429153442</v>
+        <v>-0.3099994659423828</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4286,7 +4286,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>-0.3499999046325684</v>
+        <v>-0.3099994659423828</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4294,7 +4294,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>-0.3500000238418579</v>
+        <v>-0.309999942779541</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4302,7 +4302,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>-0.3600000143051147</v>
+        <v>-0.3199999332427979</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4310,7 +4310,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>-0.3700000047683716</v>
+        <v>-0.3399999141693115</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4318,7 +4318,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>-0.3730000257492065</v>
+        <v>-0.3600000143051147</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4326,7 +4326,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>-0.3799999952316284</v>
+        <v>-0.3600000143051147</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4334,7 +4334,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>-0.4099999666213989</v>
+        <v>-0.3600000143051147</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4342,7 +4342,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>-0.4099999666213989</v>
+        <v>-0.3700000047683716</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4350,7 +4350,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>-0.4100000858306885</v>
+        <v>-0.380000114440918</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4358,7 +4358,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>-0.429999828338623</v>
+        <v>-0.3899999856948853</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4366,7 +4366,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>-0.440000057220459</v>
+        <v>-0.3900003433227539</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4374,7 +4374,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>-0.4419999718666077</v>
+        <v>-0.4099998474121094</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4382,7 +4382,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>-0.4700000286102295</v>
+        <v>-0.4199999570846558</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4390,7 +4390,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>-0.4799995422363281</v>
+        <v>-0.4299993515014648</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4398,7 +4398,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>-0.4799998998641968</v>
+        <v>-0.429999828338623</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4406,7 +4406,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>-0.4800000190734863</v>
+        <v>-0.4300003051757812</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4414,7 +4414,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>-0.5</v>
+        <v>-0.4399998188018799</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4422,7 +4422,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>-0.5049998760223389</v>
+        <v>-0.4500002861022949</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4430,7 +4430,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>-0.505000114440918</v>
+        <v>-0.4599999189376831</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4438,7 +4438,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>-0.5199999809265137</v>
+        <v>-0.4639999866485596</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4446,7 +4446,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>-0.5500001907348633</v>
+        <v>-0.4699000120162964</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4454,7 +4454,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>-0.5600004196166992</v>
+        <v>-0.4700000286102295</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4462,7 +4462,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>-0.5600004196166992</v>
+        <v>-0.4819999933242798</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4470,7 +4470,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>-0.570000171661377</v>
+        <v>-0.4900000095367432</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4478,7 +4478,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>-0.5700016021728516</v>
+        <v>-0.5200004577636719</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4486,7 +4486,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>-0.5900001525878906</v>
+        <v>-0.5399999618530273</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>-0.6099996566772461</v>
+        <v>-0.5699996948242188</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>-0.6099998950958252</v>
+        <v>-0.6800003051757812</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>-0.6200000047683716</v>
+        <v>-0.690000057220459</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>-0.75</v>
+        <v>-0.7900004386901855</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>-0.8763799667358398</v>
+        <v>-0.9199981689453125</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>-0.9299993515014648</v>
+        <v>-0.929999828338623</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>-0.9899997711181641</v>
+        <v>-0.9449999332427979</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4558,7 +4558,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>-1.039999961853027</v>
+        <v>-0.9800000190734863</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4566,7 +4566,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>-1.070000052452087</v>
+        <v>-1.009999752044678</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4574,7 +4574,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>-1.079999923706055</v>
+        <v>-1.040000081062317</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4582,7 +4582,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>-1.109999895095825</v>
+        <v>-1.066379547119141</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4590,7 +4590,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>-1.239999771118164</v>
+        <v>-1.129999995231628</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4598,7 +4598,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>-1.383112907409668</v>
+        <v>-1.180000305175781</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4606,7 +4606,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>-1.410000324249268</v>
+        <v>-1.299999952316284</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4614,7 +4614,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>-1.499999761581421</v>
+        <v>-1.320000171661377</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4622,7 +4622,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>-1.5</v>
+        <v>-1.340000152587891</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4630,7 +4630,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>-1.53000020980835</v>
+        <v>-1.414253234863281</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4638,7 +4638,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>-1.659999847412109</v>
+        <v>-1.440000534057617</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4646,7 +4646,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>-1.680000305175781</v>
+        <v>-1.550000190734863</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4654,7 +4654,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>-1.700000762939453</v>
+        <v>-1.599998474121094</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4662,7 +4662,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>-1.75</v>
+        <v>-1.609999656677246</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4670,7 +4670,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>-1.759999752044678</v>
+        <v>-1.610000610351562</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4678,7 +4678,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>-1.850000381469727</v>
+        <v>-1.689998626708984</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4686,7 +4686,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>-1.859999656677246</v>
+        <v>-1.74000072479248</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4694,7 +4694,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>-1.944253921508789</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4702,7 +4702,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>-2</v>
+        <v>-1.780000686645508</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4710,7 +4710,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>-2.079999923706055</v>
+        <v>-1.829999923706055</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4718,7 +4718,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>-2.130000114440918</v>
+        <v>-1.900000095367432</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4726,7 +4726,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>-2.159999847412109</v>
+        <v>-1.909999847412109</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4734,7 +4734,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>-2.243627786636353</v>
+        <v>-1.93999981880188</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4742,7 +4742,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>-2.340000152587891</v>
+        <v>-1.969997406005859</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4750,7 +4750,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>-2.37000036239624</v>
+        <v>-1.99311351776123</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4758,7 +4758,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>-2.489999771118164</v>
+        <v>-2.009998321533203</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4766,7 +4766,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>-2.530002593994141</v>
+        <v>-2.019999980926514</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4774,7 +4774,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>-2.570000052452087</v>
+        <v>-2.03000020980835</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4782,7 +4782,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>-2.840000152587891</v>
+        <v>-2.083627939224243</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4790,7 +4790,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>-2.900000095367432</v>
+        <v>-2.410000801086426</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4798,7 +4798,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>-3.040000915527344</v>
+        <v>-2.489999771118164</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4806,7 +4806,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>-3.780000686645508</v>
+        <v>-2.520000457763672</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4814,7 +4814,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>-4.049999237060547</v>
+        <v>-2.570000052452087</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4822,7 +4822,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>-4.050003051757812</v>
+        <v>-3.340000152587891</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4830,7 +4830,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>-4.250003814697266</v>
+        <v>-3.619998931884766</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4838,7 +4838,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>-4.729999542236328</v>
+        <v>-3.640003204345703</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4846,7 +4846,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>-4.899999618530273</v>
+        <v>-3.790000915527344</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4854,7 +4854,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>-5.230001449584961</v>
+        <v>-3.850000381469727</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4862,7 +4862,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>-5.290000915527344</v>
+        <v>-4.389999389648438</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -4870,7 +4870,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>-6.330000162124634</v>
+        <v>-4.389999389648438</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -4878,7 +4878,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>-6.549999237060547</v>
+        <v>-4.789999008178711</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -4886,7 +4886,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>-6.650001525878906</v>
+        <v>-5.270000457763672</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -4894,7 +4894,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>-7.509998321533203</v>
+        <v>-5.710002899169922</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -4902,7 +4902,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>-7.820003509521484</v>
+        <v>-5.930000066757202</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -4910,7 +4910,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>-7.8800048828125</v>
+        <v>-7.369998931884766</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -4918,7 +4918,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>-8.470001220703125</v>
+        <v>-7.790000915527344</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -4926,7 +4926,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>-8.660003662109375</v>
+        <v>-8.120002746582031</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -4934,7 +4934,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>-8.799999237060547</v>
+        <v>-9.520004272460938</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -4942,7 +4942,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>-11.25</v>
+        <v>-10.7599983215332</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -4950,7 +4950,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>-11.54000091552734</v>
+        <v>-10.84000015258789</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -4958,7 +4958,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>-16.04000091552734</v>
+        <v>-12.0099983215332</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -4966,7 +4966,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>-19.59999084472656</v>
+        <v>-22.25</v>
       </c>
     </row>
     <row r="416" spans="1:2">
